--- a/medicine/Mort/Cimetière_Mount_Hermon/Cimetière_Mount_Hermon.xlsx
+++ b/medicine/Mort/Cimetière_Mount_Hermon/Cimetière_Mount_Hermon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mount_Hermon</t>
+          <t>Cimetière_Mount_Hermon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Mount Hermon est un cimetière-jardin protestant situé dans le quartier Sillery, dans l'arrondissement de Sainte-Foy-Sillery-Cap-Rouge, à Québec. Il est désigné lieu historique national du Canada depuis 2007[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Mount Hermon est un cimetière-jardin protestant situé dans le quartier Sillery, dans l'arrondissement de Sainte-Foy-Sillery-Cap-Rouge, à Québec. Il est désigné lieu historique national du Canada depuis 2007.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mount_Hermon</t>
+          <t>Cimetière_Mount_Hermon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière se trouve à l'angle du chemin Saint-Louis et de la côte de Sillery, sur un terrain de 26 acres surplombant le fleuve Saint-Laurent. Plus de 17 000 personnes y sont inhumées.
-Un mémorial est dédié aux victimes du naufrage de l'Empress of Ireland, en 1914[2]. Une cloche, la Treggett Bell, rend hommage à la famille Treggett, qui s'est occupée de la surintendance du cimetière durant cinq générations[3]. 179 victimes du Montreal Steamer sont inhumées au cimetière. Un monument funéraire en hommage y est présent depuis 2002 y rappelle leur mémoire. Il s'agit de la deuxième tragédie maritime en importance du Saint-Laurent[4].
+Un mémorial est dédié aux victimes du naufrage de l'Empress of Ireland, en 1914. Une cloche, la Treggett Bell, rend hommage à la famille Treggett, qui s'est occupée de la surintendance du cimetière durant cinq générations. 179 victimes du Montreal Steamer sont inhumées au cimetière. Un monument funéraire en hommage y est présent depuis 2002 y rappelle leur mémoire. Il s'agit de la deuxième tragédie maritime en importance du Saint-Laurent.
 On y retrouve des sections consacrées aux Grecs ou aux Chinois.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mount_Hermon</t>
+          <t>Cimetière_Mount_Hermon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1848, le cimetière Saint-Matthew, sur la rue Saint-Jean, est devenu trop petit pour la population protestante qui s'était accrue à Québec en raison de l'immigration britannique. Une association demandant la création d'une nouveau cimetière est constituée le 11 février 1848 sous l'initiative de John Gilmour et avec à sa tête George O’Kill Stuart, maire de Québec. Le terrain acquis est celui d'Edward Bowen.
 Il s'agit du premier cimetière situé, à l'époque, en milieu rural, à l'extérieur de la ville. Il sera suivi en 1859 par le cimetière Notre-Dame-de-Belmont.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mount_Hermon</t>
+          <t>Cimetière_Mount_Hermon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,8 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Politique et affaires publiques
-Henri-Gustave Joly de Lotbinière
+          <t>Politique et affaires publiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Henri-Gustave Joly de Lotbinière
 Frank Carrel
 Thomas Cushing Aylwin
 James Gibb Ross
@@ -592,23 +613,159 @@
 Robert Christie
 Henry Seton-Karr
 John Lemesurier
-Richard Turner
-Justice
-William Collis Meredith
+Richard Turner</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Justice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>William Collis Meredith
 Henry Black
 Gustavus George Stuart
-William Smith
-Commerce
-George Benson Hall (fils)
+William Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Commerce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>George Benson Hall (fils)
 George Pozer
 John Simons
 James Bell Forsyth
-Joseph Bell Forsyth
-Médecine
-Joseph Morrin
-James Douglas
-Littérature
-James MacPherson Le Moine
+Joseph Bell Forsyth</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Joseph Morrin
+James Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Mount_Hermon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>James MacPherson Le Moine
 William Wood</t>
         </is>
       </c>
